--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\givis\OneDrive\Документы\Primo\CurrenciesRateLoader\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6747C5B-30F2-477F-B41D-0E778F766978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536B48B6-4D5E-4B47-ACC2-25F3C854E699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="885" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="885" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -204,10 +204,10 @@
     <t>LogMessage_UnknownSendEmailType</t>
   </si>
   <si>
-    <t>Send type is not configured</t>
-  </si>
-  <si>
     <t>CurrencyExchangeUrl</t>
+  </si>
+  <si>
+    <t>Send type is not configured.</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -642,7 +642,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>34</v>
@@ -753,7 +753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
@@ -898,7 +900,7 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:26">
